--- a/data/congress/csv/2017FD.xlsx
+++ b/data/congress/csv/2017FD.xlsx
@@ -36714,7 +36714,7 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Spouse/DC</t>
+          <t>$1,000,001 - $5,000,000</t>
         </is>
       </c>
       <c r="J651" t="inlineStr">
@@ -36767,7 +36767,7 @@
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>Spouse/DC</t>
+          <t>$1,000,001 - $5,000,000</t>
         </is>
       </c>
       <c r="J652" t="inlineStr">
@@ -36820,7 +36820,7 @@
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>Spouse/DC</t>
+          <t>$1,000,001 - $5,000,000</t>
         </is>
       </c>
       <c r="J653" t="inlineStr">
@@ -36979,7 +36979,7 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Spouse/DC</t>
+          <t>$1,000,001 - $5,000,000</t>
         </is>
       </c>
       <c r="J656" t="inlineStr">
@@ -37138,7 +37138,7 @@
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>Spouse/DC</t>
+          <t>$1,000,001 - $5,000,000</t>
         </is>
       </c>
       <c r="J659" t="inlineStr">
@@ -37191,7 +37191,7 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>Spouse/DC</t>
+          <t>$1,000,001 - $5,000,000</t>
         </is>
       </c>
       <c r="J660" t="inlineStr">
@@ -37244,7 +37244,7 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Spouse/DC</t>
+          <t>$1,000,001 - $5,000,000</t>
         </is>
       </c>
       <c r="J661" t="inlineStr">
@@ -37297,7 +37297,7 @@
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>Spouse/DC</t>
+          <t>$1,000,001 - $5,000,000</t>
         </is>
       </c>
       <c r="J662" t="inlineStr">
@@ -37350,7 +37350,7 @@
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Spouse/DC</t>
+          <t>$1,000,001 - $5,000,000</t>
         </is>
       </c>
       <c r="J663" t="inlineStr">
@@ -37403,7 +37403,7 @@
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Spouse/DC</t>
+          <t>$1,000,001 - $5,000,000</t>
         </is>
       </c>
       <c r="J664" t="inlineStr">
